--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1832231.982278199</v>
+        <v>1830344.400761798</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>143.3634177789875</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>146.166286799788</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>119.7445168953991</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>60.13719935906778</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>226.9736586744965</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>366.5789653676132</v>
       </c>
       <c r="G8" t="n">
-        <v>397.5255987666008</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>27.45797858609818</v>
+        <v>155.2114886365814</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498028</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,13 +1582,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>273.6633618241783</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>256.1498215708849</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.38342407841341</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>122.6519788371599</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>19.63928083815864</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>223.37038349458</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.26340107485023</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>122.6519788371598</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>19.226807163181</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.8435192151916</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>5.107731335944294</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>21.85553884047271</v>
       </c>
       <c r="E31" t="n">
-        <v>4.107140650446851</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,10 +3244,10 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.649320534154</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C2" t="n">
-        <v>549.649320534154</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D2" t="n">
-        <v>549.649320534154</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="E2" t="n">
-        <v>549.649320534154</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="F2" t="n">
-        <v>542.7038197849505</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>528.7804157235414</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>201.5856957595443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
         <v>667.8624625746712</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1705.877315537684</v>
+        <v>1097.103316533936</v>
       </c>
       <c r="C5" t="n">
-        <v>1336.914798597272</v>
+        <v>1097.103316533936</v>
       </c>
       <c r="D5" t="n">
-        <v>978.649099990522</v>
+        <v>1097.103316533936</v>
       </c>
       <c r="E5" t="n">
-        <v>592.8608473922777</v>
+        <v>1097.103316533936</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>686.1174117443281</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>268.153603642515</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4583,10 +4583,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.477155601806</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1979.486363610531</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="C8" t="n">
-        <v>1610.523846670119</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="D8" t="n">
-        <v>1252.258148063369</v>
+        <v>1381.442801724942</v>
       </c>
       <c r="E8" t="n">
-        <v>866.4698954651244</v>
+        <v>995.6545491266972</v>
       </c>
       <c r="F8" t="n">
-        <v>455.4839906755168</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,16 +4808,16 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674653</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674653</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674653</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>2366.086203674653</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4972,40 +4972,40 @@
         <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>670.9767331549068</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>670.9767331549068</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>670.9767331549068</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>450.1841540113767</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3450129705745</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705745</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705745</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705745</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5194,19 +5194,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765189</v>
+        <v>687.7081036185451</v>
       </c>
       <c r="V13" t="n">
-        <v>786.0822064765189</v>
+        <v>687.7081036185451</v>
       </c>
       <c r="W13" t="n">
-        <v>527.3450129705745</v>
+        <v>687.7081036185451</v>
       </c>
       <c r="X13" t="n">
-        <v>527.3450129705745</v>
+        <v>687.7081036185451</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.3450129705745</v>
+        <v>687.7081036185451</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.9005583181188</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="C16" t="n">
-        <v>441.9005583181188</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="D16" t="n">
-        <v>441.9005583181188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>293.9874647357257</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5476,10 +5476,10 @@
         <v>441.9005583181188</v>
       </c>
       <c r="X16" t="n">
-        <v>441.9005583181188</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.9005583181188</v>
+        <v>97.21709146028579</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.1598612984388</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1479.078613145621</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1255.293197935127</v>
       </c>
       <c r="U19" t="n">
-        <v>1073.36961047893</v>
+        <v>966.1645591486849</v>
       </c>
       <c r="V19" t="n">
-        <v>1073.36961047893</v>
+        <v>966.1645591486849</v>
       </c>
       <c r="W19" t="n">
-        <v>783.952440441969</v>
+        <v>966.1645591486849</v>
       </c>
       <c r="X19" t="n">
-        <v>783.952440441969</v>
+        <v>966.1645591486849</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.1598612984388</v>
+        <v>745.3719800051548</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,31 +5738,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>844.1942894808744</v>
+        <v>221.1079791745886</v>
       </c>
       <c r="C22" t="n">
-        <v>675.2581065529675</v>
+        <v>221.1079791745886</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2581065529675</v>
+        <v>221.1079791745886</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>221.1079791745886</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>221.1079791745886</v>
       </c>
       <c r="G22" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5917,13 +5917,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333286</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V22" t="n">
-        <v>1098.712528333286</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W22" t="n">
-        <v>1098.712528333286</v>
+        <v>441.9005583181188</v>
       </c>
       <c r="X22" t="n">
-        <v>870.7229774352686</v>
+        <v>441.9005583181188</v>
       </c>
       <c r="Y22" t="n">
-        <v>870.7229774352686</v>
+        <v>221.1079791745886</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,46 +5987,46 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C25" t="n">
-        <v>565.0858502436178</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D25" t="n">
-        <v>414.969210831282</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E25" t="n">
-        <v>267.056117248889</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F25" t="n">
-        <v>267.056117248889</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1028.859951698067</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.7516828383389</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383389</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383389</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383389</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383389</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383389</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383389</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1493.75694597614</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1269.971530765646</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>980.8428919792038</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>726.1584037733169</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>436.7412337363562</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>208.7516828383389</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.7516828383389</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6461,10 +6461,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>662.871218040146</v>
+        <v>565.4200295030872</v>
       </c>
       <c r="C31" t="n">
-        <v>549.6959003936099</v>
+        <v>565.4200295030872</v>
       </c>
       <c r="D31" t="n">
-        <v>455.3401262626451</v>
+        <v>543.3437276440242</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430016</v>
+        <v>451.1914993430018</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
         <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1791.966918252998</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1558.599144747927</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1359.675521823411</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1126.019217067821</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>953.7905314511743</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>788.7588175890148</v>
+        <v>565.4200295030872</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
@@ -6701,22 +6701,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083196</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,13 +6880,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506724</v>
@@ -7081,10 +7081,10 @@
         <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,10 +7093,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083204</v>
@@ -7561,19 +7561,19 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7594,7 +7594,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,43 +7631,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083204</v>
@@ -7804,10 +7804,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>62.794659289832</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>12.57399057439907</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>30.37317676570617</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23659,10 +23659,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>61.03762394451784</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,19 +23938,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>178.2815291454446</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>62.86696890399733</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.5685791070871</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>43.84158962621782</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>147.2667613001966</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>192.813078647659</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>71.55667754918261</v>
       </c>
       <c r="E31" t="n">
-        <v>87.12356536756521</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>929607.6849577212</v>
+        <v>929607.6849577213</v>
       </c>
     </row>
     <row r="12">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721359</v>
@@ -26335,7 +26335,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
         <v>508527.6716815878</v>
@@ -26344,16 +26344,16 @@
         <v>513151.1061651764</v>
       </c>
       <c r="M2" t="n">
+        <v>513151.1061651766</v>
+      </c>
+      <c r="N2" t="n">
+        <v>513151.1061651766</v>
+      </c>
+      <c r="O2" t="n">
         <v>513151.1061651765</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>513151.1061651765</v>
-      </c>
-      <c r="O2" t="n">
-        <v>513151.1061651763</v>
-      </c>
-      <c r="P2" t="n">
-        <v>513151.1061651764</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086682</v>
+        <v>10342.9068008669</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143901</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,22 +26442,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563566</v>
+        <v>33210.29213563564</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26470,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316450.8093639999</v>
+        <v>-316450.8093639996</v>
       </c>
       <c r="C6" t="n">
         <v>273517.0698505453</v>
@@ -26528,40 +26528,40 @@
         <v>273517.0698505451</v>
       </c>
       <c r="E6" t="n">
-        <v>-143406.7073749159</v>
+        <v>-143504.1665008879</v>
       </c>
       <c r="F6" t="n">
-        <v>381753.3291019802</v>
+        <v>381655.869976008</v>
       </c>
       <c r="G6" t="n">
-        <v>381753.3291019802</v>
+        <v>381655.869976008</v>
       </c>
       <c r="H6" t="n">
-        <v>381753.3291019803</v>
+        <v>381655.8699760081</v>
       </c>
       <c r="I6" t="n">
-        <v>381753.3291019802</v>
+        <v>381655.869976008</v>
       </c>
       <c r="J6" t="n">
-        <v>205330.1099093874</v>
+        <v>205232.650783415</v>
       </c>
       <c r="K6" t="n">
-        <v>334526.5657128836</v>
+        <v>334508.0719749494</v>
       </c>
       <c r="L6" t="n">
-        <v>367628.6366815246</v>
+        <v>367628.6366815245</v>
       </c>
       <c r="M6" t="n">
-        <v>243170.5282485543</v>
+        <v>243170.5282485545</v>
       </c>
       <c r="N6" t="n">
-        <v>377971.5434823917</v>
+        <v>377971.5434823916</v>
       </c>
       <c r="O6" t="n">
-        <v>377971.5434823913</v>
+        <v>377971.5434823915</v>
       </c>
       <c r="P6" t="n">
-        <v>333808.9381795457</v>
+        <v>333808.9381795459</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,40 +26741,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,13 +26790,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>263.512627962724</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>5.765029445073253</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>165.3712490426389</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>287.1315288463123</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>263.7855734052894</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>59.30821556748126</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>40.29708037409824</v>
       </c>
       <c r="G8" t="n">
-        <v>16.25857125419418</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>224.6796647377298</v>
+        <v>96.92615468724665</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.336584670883081e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29509,19 +29509,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31531,28 +31531,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31592,13 +31592,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
         <v>76.7639270839648</v>
@@ -31613,7 +31613,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923048</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,16 +31674,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,19 +31692,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,7 +35179,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492238</v>
@@ -35188,7 +35188,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>373.2190363402982</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412265</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043187</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,7 +38102,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
